--- a/data/award.xlsx
+++ b/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjlin\Documents\BJL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F29B36-935F-4DAF-B812-D01F105AD717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68EC51C-D59D-4816-9942-102CACCD5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="18225" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>what</t>
   </si>
@@ -37,166 +37,16 @@
     <t>why</t>
   </si>
   <si>
-    <t>The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Andrew V. Kozak Memorial Fellowship</t>
-  </si>
-  <si>
-    <t>The PDK Educational Foundation</t>
-  </si>
-  <si>
-    <t>Delta Gamma Golden Anchor Award</t>
-  </si>
-  <si>
-    <t>All Nations Church Graduate Scholarship</t>
-  </si>
-  <si>
-    <t>ANC Scholarship Foundation</t>
-  </si>
-  <si>
-    <t>Lake View Terrace, CA</t>
-  </si>
-  <si>
-    <t>Graduate Assistantship</t>
-  </si>
-  <si>
-    <t>Aug. 2016 - Present</t>
-  </si>
-  <si>
-    <t>Teaching and Learning with Technology</t>
-  </si>
-  <si>
-    <t>Graduate Student Travel Grant</t>
-  </si>
-  <si>
-    <t>College of Education</t>
-  </si>
-  <si>
-    <t>Summer Tuition Assistance Funding</t>
-  </si>
-  <si>
     <t>Madison, WI</t>
   </si>
   <si>
-    <t>Microsoft Research</t>
+    <t>Dissertation Completion Fellowship</t>
   </si>
   <si>
-    <t>ACM Richard Tapia Celebration of Diversity in Computing Conference Scholarship</t>
+    <t>University of Wisconsin - Madison</t>
   </si>
   <si>
-    <t>The National Science Foundation (NSF)</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>Included free conference registration, shared hotel accommodations and a $500 travel stipend.</t>
-  </si>
-  <si>
-    <t>$500 travel stipend was awarded for ACM TAPIA 2017 Student Research Competition (SRC).</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>The Spencer Foundation</t>
-  </si>
-  <si>
-    <t>AERA Pre-Conference Travel Award</t>
-  </si>
-  <si>
-    <t>Toronto, ON, Canada</t>
-  </si>
-  <si>
-    <t>Oct. 2019</t>
-  </si>
-  <si>
-    <t>Apr. 2019</t>
-  </si>
-  <si>
-    <t>ACM Student Research Competition Travel Award</t>
-  </si>
-  <si>
-    <t>Outstanding Academic Award</t>
-  </si>
-  <si>
-    <t>2014 - 2019</t>
-  </si>
-  <si>
-    <t>Hyomyoung Scholarship</t>
-  </si>
-  <si>
-    <t>AccessSTEM Resume contest winners Award</t>
-  </si>
-  <si>
-    <t>Dec. 2019</t>
-  </si>
-  <si>
-    <t>Seattle, WA</t>
-  </si>
-  <si>
-    <t>AccessComputing, University of Washington</t>
-  </si>
-  <si>
-    <t>Mar. 2017</t>
-  </si>
-  <si>
-    <t>CSUN Conference Travel Award</t>
-  </si>
-  <si>
-    <t>Sponsored by The National Science Foundation (NSF).</t>
-  </si>
-  <si>
-    <t>Best Doctoral Proposal Fellowship</t>
-  </si>
-  <si>
-    <t>Sponsored by Cengage.</t>
-  </si>
-  <si>
-    <t>The First International Conference on Quantitative Ethnography</t>
-  </si>
-  <si>
-    <t>Sep. 2017</t>
-  </si>
-  <si>
-    <t>2020 NextGen Leaders</t>
-  </si>
-  <si>
-    <t>Feb. 2020 - Jul. 2020</t>
-  </si>
-  <si>
-    <t>Disability:IN</t>
-  </si>
-  <si>
-    <t>Alexandria, VA</t>
-  </si>
-  <si>
-    <t>Sep. 2020</t>
-  </si>
-  <si>
-    <t>Qualcomm Scholarship</t>
-  </si>
-  <si>
-    <t>ACM Richard Tapia Celebration of Diversity in Computing Conference</t>
-  </si>
-  <si>
-    <t>Virtual</t>
-  </si>
-  <si>
-    <t>Selected as one of the outstanding doctoral consortium proposals.</t>
-  </si>
-  <si>
-    <t>2015, 2017</t>
-  </si>
-  <si>
-    <t>Awarded $1,500 for research contribution to public education.</t>
-  </si>
-  <si>
-    <t>Selected as one of the leaders in the U.S. for diversity.</t>
+    <t>Support for final year of graduate school.</t>
   </si>
 </sst>
 </file>
@@ -1051,11 +901,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,239 +924,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
+      <c r="B2">
+        <v>2017</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2017</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>2016</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
